--- a/src/assets/OPRFileImport/(OPR)Import Attendance/(OPR)Import Shift.xlsx
+++ b/src/assets/OPRFileImport/(OPR)Import Attendance/(OPR)Import Shift.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OPR\OPRFileImport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OPR\src\assets\OPRFileImport\(OPR)Import Attendance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24DFE1B5-F9E2-4488-B51F-ECC84856AEE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6EBAF6-DE47-4D13-9EEC-CC0E2C89C02F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="description (รายละเอียด)" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AC$2</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="91">
   <si>
     <t>company_code</t>
   </si>
@@ -431,6 +434,17 @@
   </si>
   <si>
     <t>Flexible Break
+1 = True</t>
+  </si>
+  <si>
+    <t>project</t>
+  </si>
+  <si>
+    <t>กะใช้กับโปรเจค
+1 = ใช้</t>
+  </si>
+  <si>
+    <t>Shift in Project
 1 = True</t>
   </si>
 </sst>
@@ -588,7 +602,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -640,6 +654,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -924,10 +946,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB2"/>
+  <dimension ref="A1:AC2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC4" sqref="AC4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.140625" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -941,11 +963,12 @@
     <col min="16" max="16" width="17.42578125" style="1" customWidth="1"/>
     <col min="17" max="23" width="14" style="1" customWidth="1"/>
     <col min="24" max="24" width="14.7109375" style="1" customWidth="1"/>
-    <col min="25" max="28" width="17.42578125" style="1" customWidth="1"/>
-    <col min="29" max="16384" width="25.140625" style="1"/>
+    <col min="25" max="27" width="17.42578125" style="1" customWidth="1"/>
+    <col min="28" max="29" width="17.42578125" style="19" customWidth="1"/>
+    <col min="30" max="16384" width="25.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1027,11 +1050,14 @@
       <c r="AA1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AB1" s="18" t="s">
         <v>27</v>
       </c>
+      <c r="AC1" s="18" t="s">
+        <v>88</v>
+      </c>
     </row>
-    <row r="2" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
@@ -1087,13 +1113,16 @@
       <c r="AA2" s="1">
         <v>6</v>
       </c>
-      <c r="AB2" s="1">
+      <c r="AB2" s="19">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="19">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <dataValidations count="3">
+  <dataValidations count="2">
     <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Format (รูปแบบ)" error="format = 00:00_x000a_รูปแบบ = 00:00_x000a_00:00 - 23:00_x000a_" sqref="F1:W1048576" xr:uid="{12266C9E-A4DD-44EF-B88E-B971B9BA5835}">
       <formula1>0</formula1>
       <formula2>0.958333333333333</formula2>
@@ -1102,9 +1131,6 @@
       <formula1>1</formula1>
       <formula2>24</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB1:AB1048576" xr:uid="{F2AC37C9-6B19-448B-A840-A62457278DCD}">
-      <formula1>1</formula1>
-    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1112,10 +1138,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09717404-FE58-40BB-8E84-9B13E87F89D5}">
-  <dimension ref="A1:AB4"/>
+  <dimension ref="A1:AC4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="W5" sqref="W5"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AD3" sqref="AD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.140625" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1126,10 +1152,11 @@
     <col min="6" max="21" width="20.85546875" style="1" customWidth="1"/>
     <col min="22" max="23" width="21.28515625" style="1" customWidth="1"/>
     <col min="24" max="28" width="16.42578125" style="1" customWidth="1"/>
-    <col min="29" max="16384" width="18.140625" style="1"/>
+    <col min="29" max="29" width="24.42578125" style="1" customWidth="1"/>
+    <col min="30" max="16384" width="18.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1214,8 +1241,11 @@
       <c r="AB1" s="4" t="s">
         <v>27</v>
       </c>
+      <c r="AC1" s="4" t="s">
+        <v>88</v>
+      </c>
     </row>
-    <row r="2" spans="1:28" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>32</v>
       </c>
@@ -1300,8 +1330,11 @@
       <c r="AB2" s="17" t="s">
         <v>86</v>
       </c>
+      <c r="AC2" s="17" t="s">
+        <v>89</v>
+      </c>
     </row>
-    <row r="3" spans="1:28" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>33</v>
       </c>
@@ -1386,8 +1419,11 @@
       <c r="AB3" s="17" t="s">
         <v>87</v>
       </c>
+      <c r="AC3" s="17" t="s">
+        <v>90</v>
+      </c>
     </row>
-    <row r="4" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
@@ -1446,10 +1482,13 @@
       <c r="AB4" s="1">
         <v>1</v>
       </c>
+      <c r="AC4" s="1">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="decimal" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB1 AB4" xr:uid="{24BD2123-8A02-4A3B-80FF-30612366C6E9}">
+    <dataValidation type="decimal" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB4 AB1" xr:uid="{24BD2123-8A02-4A3B-80FF-30612366C6E9}">
       <formula1>1</formula1>
     </dataValidation>
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X1:AA1 X4:AA4" xr:uid="{85CF32C3-E029-49E9-BBCD-13EFDDA9BB85}">
